--- a/Banco de dados.xlsx
+++ b/Banco de dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.15.9\Alunos\Cp1\Carlos Eduardo\Recriaçao instagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\Carlos Eduardo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033222B-ECA7-49A4-9AF9-8B6C368DD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F7D169-DFB9-41F0-ABB7-F57DF375AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIO" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C6019C-3E6B-4332-B2DC-4691F69E9EC1}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FDD555-F0B1-4B86-BB5D-476960AA49C2}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
